--- a/CASUAL/LA PICNIC GROVE/NATANAUAN, SENANDO.xlsx
+++ b/CASUAL/LA PICNIC GROVE/NATANAUAN, SENANDO.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
   <si>
     <t>PERIOD</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>UT(0-0-13)</t>
+  </si>
+  <si>
+    <t>UT(0-0-8)</t>
+  </si>
+  <si>
+    <t>UT(0-0-1)</t>
   </si>
 </sst>
 </file>
@@ -3329,7 +3335,7 @@
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
+      <selection pane="bottomLeft" activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3488,7 +3494,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>59.956999999999994</v>
+        <v>59.938000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4709,11 +4715,15 @@
       <c r="A69" s="40">
         <v>44743</v>
       </c>
-      <c r="B69" s="20"/>
+      <c r="B69" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C69" s="13">
         <v>1.25</v>
       </c>
-      <c r="D69" s="39"/>
+      <c r="D69" s="39">
+        <v>2E-3</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
       <c r="G69" s="13">
@@ -4749,11 +4759,15 @@
       <c r="A71" s="40">
         <v>44805</v>
       </c>
-      <c r="B71" s="20"/>
+      <c r="B71" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
-      <c r="D71" s="39"/>
+      <c r="D71" s="39">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
       <c r="G71" s="13">
@@ -8249,11 +8263,11 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>2.700000000000001E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
